--- a/Fe-O_test_asymmetric_O.xlsx
+++ b/Fe-O_test_asymmetric_O.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t xml:space="preserve">SEE NEXT PAGE FOR SCREENSHOTS OF FACTSAGE INPUTS</t>
   </si>
@@ -122,6 +122,9 @@
     <t xml:space="preserve">chi_ij</t>
   </si>
   <si>
+    <t xml:space="preserve">GOOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">FeII</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOOD</t>
   </si>
   <si>
     <t xml:space="preserve">DeltaG^0_ij</t>
@@ -198,10 +198,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -256,14 +257,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -325,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,31 +335,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +444,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FFCC"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF9999"/>
@@ -460,22 +473,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 13" descr=""/>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -484,8 +497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6367320" y="413280"/>
-          <a:ext cx="4704480" cy="4478040"/>
+          <a:off x="3525840" y="6597720"/>
+          <a:ext cx="3699360" cy="1044000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,19 +513,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>357840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>200520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -521,8 +534,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2803680" y="6597720"/>
-          <a:ext cx="3700800" cy="1045080"/>
+          <a:off x="3637080" y="5467680"/>
+          <a:ext cx="2072160" cy="972720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -534,22 +547,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>433080</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>288720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60120</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 2" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -558,8 +571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2878920" y="5467680"/>
-          <a:ext cx="2073240" cy="973800"/>
+          <a:off x="8005680" y="254520"/>
+          <a:ext cx="4982760" cy="4700160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1539360" y="66600"/>
-          <a:ext cx="3837960" cy="3004560"/>
+          <a:ext cx="3836880" cy="3003480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -638,7 +651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5425200" y="72000"/>
-          <a:ext cx="3862440" cy="3006720"/>
+          <a:ext cx="3861360" cy="3005640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,9 +672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>433080</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -675,7 +688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3181680"/>
-          <a:ext cx="4101840" cy="3046680"/>
+          <a:ext cx="4100760" cy="3045600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -696,9 +709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>471600</xdr:colOff>
+      <xdr:colOff>470520</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,7 +725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6177600"/>
-          <a:ext cx="4140360" cy="3032640"/>
+          <a:ext cx="4139280" cy="3031560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,9 +746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
+      <xdr:colOff>441360</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9244440"/>
-          <a:ext cx="4111200" cy="3084120"/>
+          <a:ext cx="4110120" cy="3083040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,9 +783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>62280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,7 +799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4121640" y="3145680"/>
-          <a:ext cx="3891240" cy="3080160"/>
+          <a:ext cx="3890160" cy="3079080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,9 +820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -823,7 +836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4154400" y="6260760"/>
-          <a:ext cx="3881880" cy="3050640"/>
+          <a:ext cx="3880800" cy="3049560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,9 +857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -860,7 +873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4163760" y="9318600"/>
-          <a:ext cx="3853080" cy="2936520"/>
+          <a:ext cx="3852000" cy="2935440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -897,7 +910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1683720" y="12540600"/>
-          <a:ext cx="3890880" cy="2858040"/>
+          <a:ext cx="3889800" cy="2856960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -918,9 +931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>544320</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -934,7 +947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5590080" y="12534480"/>
-          <a:ext cx="4127760" cy="2869920"/>
+          <a:ext cx="4126680" cy="2868840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,9 +968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>610920</xdr:colOff>
+      <xdr:colOff>609840</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -971,7 +984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8013240" y="3269160"/>
-          <a:ext cx="4215960" cy="2967840"/>
+          <a:ext cx="4214880" cy="2966760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,15 +1004,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1029,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1021,8 +1038,27 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
@@ -1032,6 +1068,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1049,6 +1094,15 @@
         <v>8.31446</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -1057,6 +1111,15 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1067,7 +1130,16 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -1082,62 +1154,107 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.43759</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.50439</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.0025191</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="5" t="n">
         <v>3.085E-006</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.052141</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.0033605</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="n">
         <v>1.4375</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
@@ -1145,13 +1262,22 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1178,7 +1304,15 @@
       <c r="J14" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1207,7 +1341,15 @@
         <f aca="false">Y_Fe</f>
         <v>0.69104455</v>
       </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1225,7 +1367,7 @@
       <c r="G16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <f aca="false">Y_O</f>
         <v>0.278268585</v>
       </c>
@@ -1236,6 +1378,15 @@
         <f aca="false">Y_O</f>
         <v>0.278268585</v>
       </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -1264,25 +1415,50 @@
       <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
@@ -1306,6 +1482,15 @@
       <c r="J20" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1337,6 +1522,15 @@
         <f aca="false">X_FeFe/(X_FeFe + X_Fe3Fe3 + X_FeFe3)</f>
         <v>0.986741819506907</v>
       </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1353,17 +1547,26 @@
       <c r="G22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">X_OO</f>
         <v>3.085E-006</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="3" t="n">
         <f aca="false">X_OO</f>
         <v>3.085E-006</v>
       </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1373,6 +1576,13 @@
         <f aca="false">X_Fe3Fe3*n_pairs</f>
         <v>0.00483071875</v>
       </c>
+      <c r="E23" s="2" t="n">
+        <f aca="false">SUM(B21:D23)</f>
+        <v>1.4375052971875</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="0" t="s">
         <v>8</v>
       </c>
@@ -1387,10 +1597,30 @@
       <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
@@ -1399,22 +1629,31 @@
         <v>8</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <f aca="false">2*B21/B15 + C21/C15 + D21/D15</f>
         <v>0.572812388541667</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <f aca="false">C21/B16 + 2*C22/C16 + D22/D16</f>
         <v>0.400008134479167</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <f aca="false">D21/B17 +D22/C17 + 2*D23/D17</f>
         <v>0.027198003125</v>
       </c>
@@ -1422,14 +1661,23 @@
         <f aca="false">SUM(B26:D26)</f>
         <v>1.00001852614583</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>22</v>
+      <c r="A27" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">n_Fe/n_moles</f>
@@ -1453,10 +1701,19 @@
       <c r="H27" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>23</v>
+      <c r="A28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">X_FeFe + X_FeO/2 + X_FeFe3/2</f>
@@ -1474,30 +1731,49 @@
         <f aca="false">SUM(B28:D28)</f>
         <v>1.000003685</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="2" t="n">
         <f aca="false">n_Fe+n_Fe3</f>
         <v>0.600010391666667</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="2" t="n">
         <f aca="false">n_O</f>
         <v>0.400008134479167</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="7"/>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
@@ -1510,10 +1786,10 @@
       <c r="A34" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="10" t="n">
         <v>-391580.56</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="10" t="n">
         <v>83680</v>
       </c>
     </row>
@@ -1521,7 +1797,7 @@
       <c r="A35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="10" t="n">
         <f aca="false">-394551.2 + 12.552*T</f>
         <v>-376060.2212</v>
       </c>
@@ -1533,16 +1809,16 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>7</v>
@@ -1568,7 +1844,7 @@
       <c r="A42" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="10" t="n">
         <f aca="false">83680*chi_Fe3O^2</f>
         <v>16456.9511428697</v>
       </c>
@@ -1577,20 +1853,20 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="8"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>7</v>
@@ -1611,7 +1887,8 @@
         <f aca="false">(dG0_FeFe3 + dG1_FeFe3)*n_FeFe3/2</f>
         <v>134.239087326816</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1628,11 +1905,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K50" s="8"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>7</v>
@@ -1642,7 +1919,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -1657,14 +1934,14 @@
         <f aca="false">G_Fe+6276</f>
         <v>-69691.1324909446</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1959,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -1715,55 +1992,55 @@
         <v>37</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="10" t="n">
+      <c r="B59" s="13" t="n">
         <f aca="false">n_Fe*G_Fe + n_O*G_O + n_Fe3*G_Fe3</f>
         <v>-23024.1975593781</v>
       </c>
-      <c r="C59" s="10" t="n">
+      <c r="C59" s="13" t="n">
         <f aca="false">- T*Sconf</f>
         <v>-6890.55736047711</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="13" t="n">
         <f aca="false">SUM(dG_excesses)</f>
         <v>-141621.842758539</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="n">
+      <c r="E59" s="13"/>
+      <c r="F59" s="13" t="n">
         <f aca="false">SUM(B59:D59)</f>
         <v>-171536.597678394</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12" t="n">
+      <c r="E60" s="15"/>
+      <c r="F60" s="15" t="n">
         <v>-171807</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="17" t="n">
         <f aca="false">F60-F59</f>
-        <v>-270.402321605885</v>
-      </c>
-      <c r="G61" s="13" t="s">
+        <v>-270.402321605507</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2011,7 +2288,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
